--- a/files/Data_Snapshot_(24-28-Dec-2020).xlsx
+++ b/files/Data_Snapshot_(24-28-Dec-2020).xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="24122020 (Thursday)" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="25122020 (Friday)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="26122020 (Saturday)" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="27122020 (Sunday)" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="28122020 (Monday)" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="24-12-2020 (Thursday)" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="25-12-2020 (Friday)" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="26-12-2020 (Saturday)" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="27-12-2020 (Sunday)" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="28-12-2020 (Monday)" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
